--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -115,7 +115,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -148,7 +148,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -269,7 +269,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -375,7 +375,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -408,7 +408,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -446,7 +446,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -497,7 +497,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -530,7 +530,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -561,7 +561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -612,7 +612,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1800">
           <a:latin typeface="Helvetica" charset="0"/>
           <a:ea typeface="Helvetica" charset="0"/>
           <a:cs typeface="Helvetica" charset="0"/>
@@ -1189,16 +1189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543791</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -115,7 +115,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -128,13 +128,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Varying Weight of Bag of Words Feature</a:t>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>Effect of Word-Similarity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200" baseline="0"/>
+              <a:t> Weighting on Prediction Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.152864573473199"/>
+          <c:y val="0.0431222224632735"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -148,7 +159,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -166,13 +177,149 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.140009181202929"/>
+          <c:y val="0.143093697195844"/>
+          <c:w val="0.792658553468633"/>
+          <c:h val="0.691128997167493"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.900</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.900</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -201,8 +348,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00815660685154969"/>
-                  <c:y val="0.0385674931129477"/>
+                  <c:x val="0.00685429073202742"/>
+                  <c:y val="0.0200744704897382"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -221,8 +368,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00815660685154975"/>
-                  <c:y val="0.0247933884297521"/>
+                  <c:x val="0.0244796097572409"/>
+                  <c:y val="0.0267659606529841"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -241,8 +388,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00326264274061978"/>
-                  <c:y val="0.046831955922865"/>
+                  <c:x val="0.00783347512231709"/>
+                  <c:y val="0.013382980326492"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -265,7 +412,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -285,15 +434,13 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -358,72 +505,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="982792960"/>
-        <c:axId val="976695712"/>
+        <c:axId val="1012273136"/>
+        <c:axId val="1012855024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="982792960"/>
+        <c:axId val="1012273136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bag of Words Weight</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" charset="0"/>
-                  <a:ea typeface="Helvetica" charset="0"/>
-                  <a:cs typeface="Helvetica" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -461,7 +552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976695712"/>
+        <c:crossAx val="1012855024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="976695712"/>
+        <c:axId val="1012855024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -490,6 +581,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -497,12 +602,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="Helvetica" charset="0"/>
                     <a:ea typeface="Helvetica" charset="0"/>
@@ -510,13 +612,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Fraction of Correct Predictions</a:t>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fraction Correct</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0255687246014044"/>
+              <c:y val="0.307878131140434"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -530,12 +643,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="Helvetica" charset="0"/>
                   <a:ea typeface="Helvetica" charset="0"/>
@@ -576,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="982792960"/>
+        <c:crossAx val="1012273136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,6 +736,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1190,15 +1301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>543791</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165742</xdr:rowOff>
+      <xdr:colOff>376195</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>404091</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>178442</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>792043</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68279</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1218,6 +1329,136 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41637</cdr:x>
+      <cdr:y>0.91005</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.57746</cdr:x>
+      <cdr:y>0.96581</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5400257" y="6908849"/>
+          <a:ext cx="2089355" cy="423334"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43742</cdr:x>
+      <cdr:y>0.90106</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59957</cdr:x>
+      <cdr:y>0.96761</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5673375" y="6840570"/>
+          <a:ext cx="2103011" cy="505268"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38269</cdr:x>
+      <cdr:y>0.91152</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71281</cdr:x>
+      <cdr:y>0.98481</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3608270" y="4915845"/>
+          <a:ext cx="3112649" cy="395263"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" charset="0"/>
+              <a:ea typeface="Helvetica" charset="0"/>
+              <a:cs typeface="Helvetica" charset="0"/>
+            </a:rPr>
+            <a:t>Word</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" charset="0"/>
+              <a:ea typeface="Helvetica" charset="0"/>
+              <a:cs typeface="Helvetica" charset="0"/>
+            </a:rPr>
+            <a:t> Similarity Weighting</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" charset="0"/>
+            <a:ea typeface="Helvetica" charset="0"/>
+            <a:cs typeface="Helvetica" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
